--- a/QuantLibXL/Data/XLS/050_CalibrateCMSMarket/EUR_010_SingleIndexMarkets.xlsx
+++ b/QuantLibXL/Data/XLS/050_CalibrateCMSMarket/EUR_010_SingleIndexMarkets.xlsx
@@ -11,9 +11,6 @@
     <sheet name="Settings" sheetId="2" r:id="rId2"/>
     <sheet name="Quotes" sheetId="1" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="anscount" hidden="1">1</definedName>
     <definedName name="ConvexityAdjustmentType">'General Settings'!$D$18</definedName>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>General Settings</t>
   </si>
@@ -179,6 +176,9 @@
   <si>
     <t>Currency</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -192,7 +192,7 @@
     <numFmt numFmtId="168" formatCode="0.000%"/>
     <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -819,22 +819,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1129,7 +1113,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="24" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="24" customWidth="1"/>
@@ -1141,13 +1125,13 @@
     <col min="8" max="16384" width="8" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="13.5" thickBot="1">
+    <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="27" customFormat="1" ht="15.75">
+    <row r="3" spans="1:5" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="77" t="s">
         <v>0</v>
@@ -1156,14 +1140,14 @@
       <c r="D3" s="78"/>
       <c r="E3" s="79"/>
     </row>
-    <row r="4" spans="1:5" s="27" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="30"/>
     </row>
-    <row r="5" spans="1:5" s="27" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
       <c r="B5" s="28"/>
       <c r="C5" s="31" t="s">
@@ -1172,7 +1156,7 @@
       <c r="D5" s="32"/>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" s="27" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
       <c r="B6" s="28"/>
       <c r="C6" s="31" t="s">
@@ -1183,7 +1167,7 @@
       </c>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" spans="1:5" s="27" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="28"/>
       <c r="C7" s="31" t="s">
@@ -1194,7 +1178,7 @@
       </c>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="28"/>
       <c r="C8" s="31" t="s">
@@ -1205,19 +1189,18 @@
       </c>
       <c r="E8" s="33"/>
     </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="28"/>
       <c r="C9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="35" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\050_CalibrateCMSMarket\</v>
+      <c r="D9" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" spans="1:5" s="27" customFormat="1" ht="12.75">
+    <row r="10" spans="1:5" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="28"/>
       <c r="C10" s="31" t="s">
@@ -1228,15 +1211,15 @@
       </c>
       <c r="E10" s="33"/>
     </row>
-    <row r="11" spans="1:5" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="11" spans="1:5" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="36"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
     </row>
-    <row r="12" spans="1:5" ht="12" thickBot="1"/>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="77" t="s">
         <v>32</v>
       </c>
@@ -1244,13 +1227,13 @@
       <c r="D13" s="78"/>
       <c r="E13" s="79"/>
     </row>
-    <row r="14" spans="1:5" ht="12.75">
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="39"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="41"/>
     </row>
-    <row r="15" spans="1:5" ht="12.75">
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="74"/>
       <c r="C15" s="13" t="s">
         <v>45</v>
@@ -1260,7 +1243,7 @@
       </c>
       <c r="E15" s="76"/>
     </row>
-    <row r="16" spans="1:5" ht="12.75">
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="39"/>
       <c r="C16" s="13" t="s">
         <v>14</v>
@@ -1270,7 +1253,7 @@
       </c>
       <c r="E16" s="41"/>
     </row>
-    <row r="17" spans="2:5" ht="12.75">
+    <row r="17" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="39"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
@@ -1280,7 +1263,7 @@
       </c>
       <c r="E17" s="41"/>
     </row>
-    <row r="18" spans="2:5" ht="12.75">
+    <row r="18" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="39"/>
       <c r="C18" s="13" t="s">
         <v>7</v>
@@ -1290,7 +1273,7 @@
       </c>
       <c r="E18" s="41"/>
     </row>
-    <row r="19" spans="2:5" ht="12.75">
+    <row r="19" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="39"/>
       <c r="C19" s="13" t="s">
         <v>8</v>
@@ -1300,7 +1283,7 @@
       </c>
       <c r="E19" s="41"/>
     </row>
-    <row r="20" spans="2:5" ht="13.5" thickBot="1">
+    <row r="20" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="42"/>
       <c r="C20" s="43"/>
       <c r="D20" s="43"/>
@@ -1338,7 +1321,7 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="2" customWidth="1"/>
@@ -1351,8 +1334,8 @@
     <col min="13" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" ht="12" thickBot="1"/>
-    <row r="2" spans="1:103" s="1" customFormat="1" ht="16.5" thickBot="1">
+    <row r="1" spans="1:103" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:103" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="80" t="s">
         <v>32</v>
       </c>
@@ -1360,7 +1343,7 @@
       <c r="D2" s="81"/>
       <c r="E2" s="82"/>
     </row>
-    <row r="3" spans="1:103">
+    <row r="3" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
@@ -1465,7 +1448,7 @@
       <c r="CX3" s="1"/>
       <c r="CY3" s="1"/>
     </row>
-    <row r="4" spans="1:103">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="85" t="s">
@@ -1574,7 +1557,7 @@
       <c r="CX4" s="1"/>
       <c r="CY4" s="1"/>
     </row>
-    <row r="5" spans="1:103">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="8"/>
       <c r="C5" s="83"/>
@@ -1681,7 +1664,7 @@
       <c r="CX5" s="1"/>
       <c r="CY5" s="1"/>
     </row>
-    <row r="6" spans="1:103">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="83"/>
@@ -1788,7 +1771,7 @@
       <c r="CX6" s="1"/>
       <c r="CY6" s="1"/>
     </row>
-    <row r="7" spans="1:103">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="83"/>
@@ -1895,7 +1878,7 @@
       <c r="CX7" s="1"/>
       <c r="CY7" s="1"/>
     </row>
-    <row r="8" spans="1:103">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="83"/>
@@ -2002,7 +1985,7 @@
       <c r="CX8" s="1"/>
       <c r="CY8" s="1"/>
     </row>
-    <row r="9" spans="1:103">
+    <row r="9" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="53" t="s">
@@ -2111,7 +2094,7 @@
       <c r="CX9" s="1"/>
       <c r="CY9" s="1"/>
     </row>
-    <row r="10" spans="1:103">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="8"/>
       <c r="C10" s="85" t="s">
@@ -2221,7 +2204,7 @@
       <c r="CX10" s="1"/>
       <c r="CY10" s="1"/>
     </row>
-    <row r="11" spans="1:103">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="8"/>
       <c r="C11" s="86"/>
@@ -2329,7 +2312,7 @@
       <c r="CX11" s="1"/>
       <c r="CY11" s="1"/>
     </row>
-    <row r="12" spans="1:103">
+    <row r="12" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="8"/>
       <c r="C12" s="86"/>
@@ -2437,7 +2420,7 @@
       <c r="CX12" s="1"/>
       <c r="CY12" s="1"/>
     </row>
-    <row r="13" spans="1:103">
+    <row r="13" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="8"/>
       <c r="C13" s="86"/>
@@ -2545,7 +2528,7 @@
       <c r="CX13" s="1"/>
       <c r="CY13" s="1"/>
     </row>
-    <row r="14" spans="1:103" ht="12" customHeight="1">
+    <row r="14" spans="1:103" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="8"/>
       <c r="C14" s="87"/>
@@ -2653,7 +2636,7 @@
       <c r="CX14" s="1"/>
       <c r="CY14" s="1"/>
     </row>
-    <row r="15" spans="1:103">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="8"/>
       <c r="C15" s="83" t="s">
@@ -2766,7 +2749,7 @@
       <c r="CX15" s="1"/>
       <c r="CY15" s="1"/>
     </row>
-    <row r="16" spans="1:103">
+    <row r="16" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="8"/>
       <c r="C16" s="83"/>
@@ -2877,7 +2860,7 @@
       <c r="CX16" s="1"/>
       <c r="CY16" s="1"/>
     </row>
-    <row r="17" spans="1:103">
+    <row r="17" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="8"/>
       <c r="C17" s="83"/>
@@ -2988,7 +2971,7 @@
       <c r="CX17" s="1"/>
       <c r="CY17" s="1"/>
     </row>
-    <row r="18" spans="1:103">
+    <row r="18" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="8"/>
       <c r="C18" s="83"/>
@@ -3099,7 +3082,7 @@
       <c r="CX18" s="1"/>
       <c r="CY18" s="1"/>
     </row>
-    <row r="19" spans="1:103">
+    <row r="19" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="8"/>
       <c r="C19" s="84"/>
@@ -3210,7 +3193,7 @@
       <c r="CX19" s="1"/>
       <c r="CY19" s="1"/>
     </row>
-    <row r="20" spans="1:103">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="8"/>
       <c r="E20" s="9"/>
@@ -3313,7 +3296,7 @@
       <c r="CX20" s="1"/>
       <c r="CY20" s="1"/>
     </row>
-    <row r="21" spans="1:103">
+    <row r="21" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="8"/>
       <c r="C21" s="45" t="s">
@@ -3423,7 +3406,7 @@
       <c r="CX21" s="1"/>
       <c r="CY21" s="1"/>
     </row>
-    <row r="22" spans="1:103">
+    <row r="22" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="8"/>
       <c r="C22" s="23" t="s">
@@ -3533,7 +3516,7 @@
       <c r="CX22" s="1"/>
       <c r="CY22" s="1"/>
     </row>
-    <row r="23" spans="1:103">
+    <row r="23" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="8"/>
       <c r="C23" s="23" t="s">
@@ -3643,7 +3626,7 @@
       <c r="CX23" s="1"/>
       <c r="CY23" s="1"/>
     </row>
-    <row r="24" spans="1:103">
+    <row r="24" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="8"/>
       <c r="C24" s="23" t="s">
@@ -3753,7 +3736,7 @@
       <c r="CX24" s="1"/>
       <c r="CY24" s="1"/>
     </row>
-    <row r="25" spans="1:103">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="8"/>
       <c r="C25" s="51" t="s">
@@ -3863,7 +3846,7 @@
       <c r="CX25" s="1"/>
       <c r="CY25" s="1"/>
     </row>
-    <row r="26" spans="1:103">
+    <row r="26" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="8"/>
       <c r="C26" s="49" t="s">
@@ -3973,7 +3956,7 @@
       <c r="CX26" s="1"/>
       <c r="CY26" s="1"/>
     </row>
-    <row r="27" spans="1:103">
+    <row r="27" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="8"/>
       <c r="C27" s="49" t="s">
@@ -4083,7 +4066,7 @@
       <c r="CX27" s="1"/>
       <c r="CY27" s="1"/>
     </row>
-    <row r="28" spans="1:103">
+    <row r="28" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
       <c r="C28" s="49" t="s">
@@ -4193,7 +4176,7 @@
       <c r="CX28" s="1"/>
       <c r="CY28" s="1"/>
     </row>
-    <row r="29" spans="1:103">
+    <row r="29" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
       <c r="C29" s="49" t="s">
@@ -4303,7 +4286,7 @@
       <c r="CX29" s="1"/>
       <c r="CY29" s="1"/>
     </row>
-    <row r="30" spans="1:103">
+    <row r="30" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="8"/>
       <c r="C30" s="50" t="s">
@@ -4413,7 +4396,7 @@
       <c r="CX30" s="1"/>
       <c r="CY30" s="1"/>
     </row>
-    <row r="31" spans="1:103" ht="12" thickBot="1">
+    <row r="31" spans="1:103" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="10"/>
       <c r="C31" s="3"/>
@@ -4518,7 +4501,7 @@
       <c r="CX31" s="1"/>
       <c r="CY31" s="1"/>
     </row>
-    <row r="32" spans="1:103" ht="12" thickBot="1">
+    <row r="32" spans="1:103" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4623,7 +4606,7 @@
       <c r="CX32" s="1"/>
       <c r="CY32" s="1"/>
     </row>
-    <row r="33" spans="1:103" ht="16.5" thickBot="1">
+    <row r="33" spans="1:103" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="80" t="s">
         <v>33</v>
@@ -4730,7 +4713,7 @@
       <c r="CX33" s="1"/>
       <c r="CY33" s="1"/>
     </row>
-    <row r="34" spans="1:103">
+    <row r="34" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
@@ -4835,7 +4818,7 @@
       <c r="CX34" s="1"/>
       <c r="CY34" s="1"/>
     </row>
-    <row r="35" spans="1:103">
+    <row r="35" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="8"/>
       <c r="C35" s="52" t="s">
@@ -4944,7 +4927,7 @@
       <c r="CX35" s="1"/>
       <c r="CY35" s="1"/>
     </row>
-    <row r="36" spans="1:103">
+    <row r="36" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="8"/>
       <c r="C36" s="53" t="str">
@@ -5055,23 +5038,23 @@
       <c r="CX36" s="1"/>
       <c r="CY36" s="1"/>
     </row>
-    <row r="37" spans="1:103" s="1" customFormat="1" ht="12" thickBot="1">
+    <row r="37" spans="1:103" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:103" s="1" customFormat="1"/>
-    <row r="39" spans="1:103" s="1" customFormat="1"/>
-    <row r="40" spans="1:103" s="1" customFormat="1"/>
-    <row r="41" spans="1:103" s="1" customFormat="1"/>
-    <row r="42" spans="1:103" s="1" customFormat="1"/>
-    <row r="43" spans="1:103" s="1" customFormat="1"/>
-    <row r="44" spans="1:103" s="1" customFormat="1"/>
-    <row r="45" spans="1:103" s="1" customFormat="1"/>
-    <row r="46" spans="1:103" s="1" customFormat="1"/>
-    <row r="47" spans="1:103" s="1" customFormat="1"/>
-    <row r="48" spans="1:103" s="1" customFormat="1"/>
+    <row r="38" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:E2"/>
@@ -5101,7 +5084,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -5118,12 +5101,12 @@
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="12" thickBot="1">
+    <row r="1" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E1" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="17.25" customHeight="1" thickBot="1">
+    <row r="2" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
@@ -5135,10 +5118,10 @@
         <v>EURCMS</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="12" customHeight="1" thickBot="1">
+    <row r="3" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
       <c r="C4" s="64" t="s">
         <v>1</v>
@@ -5171,7 +5154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="12" thickBot="1">
+    <row r="5" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
       <c r="C5" s="66" t="s">
         <v>42</v>
@@ -5204,7 +5187,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
@@ -5249,7 +5232,7 @@
         <v>EURCMS30Y_5Yask_Quote</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
         <v>3</v>
       </c>
@@ -5294,7 +5277,7 @@
         <v>EURCMS30Y_10Yask_Quote</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
@@ -5339,7 +5322,7 @@
         <v>EURCMS30Y_15Yask_Quote</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
@@ -5384,7 +5367,7 @@
         <v>EURCMS30Y_20Yask_Quote</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="12" thickBot="1">
+    <row r="10" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
@@ -5429,7 +5412,7 @@
         <v>EURCMS30Y_30Yask_Quote</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C13" s="55" t="e">
         <f>_xll.qlQuoteValue(C6,Trigger)</f>
         <v>#NUM!</v>
@@ -5471,7 +5454,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C14" s="55" t="e">
         <f>_xll.qlQuoteValue(C7,Trigger)</f>
         <v>#NUM!</v>
@@ -5513,7 +5496,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C15" s="55" t="e">
         <f>_xll.qlQuoteValue(C8,Trigger)</f>
         <v>#NUM!</v>
@@ -5555,7 +5538,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C16" s="55" t="e">
         <f>_xll.qlQuoteValue(C9,Trigger)</f>
         <v>#NUM!</v>
@@ -5597,7 +5580,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="55" t="e">
         <f>_xll.qlQuoteValue(C10,Trigger)</f>
         <v>#NUM!</v>

--- a/QuantLibXL/Data/XLS/050_CalibrateCMSMarket/EUR_010_SingleIndexMarkets.xlsx
+++ b/QuantLibXL/Data/XLS/050_CalibrateCMSMarket/EUR_010_SingleIndexMarkets.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>General Settings</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Currency</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1195,8 +1192,9 @@
       <c r="C9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>46</v>
+      <c r="D9" s="35" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\050_CalibrateCMSMarket\</v>
       </c>
       <c r="E9" s="33"/>
     </row>
@@ -4935,8 +4933,8 @@
         <v>EUR_010_SingleIndexMarkets.xml</v>
       </c>
       <c r="D36" s="54" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D21:D30,SerializationPath&amp;C36,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D21:D30,SerializationPath&amp;C36,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="1"/>
